--- a/Code/Results/Cases/Case_5_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_152/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02865749216459</v>
+        <v>12.22224168450631</v>
       </c>
       <c r="C2">
-        <v>8.270701207659947</v>
+        <v>10.71512280286257</v>
       </c>
       <c r="D2">
-        <v>5.456141542527975</v>
+        <v>6.366890670964553</v>
       </c>
       <c r="E2">
-        <v>8.293401628827032</v>
+        <v>13.22350241928203</v>
       </c>
       <c r="F2">
-        <v>22.24482797368401</v>
+        <v>30.51464489457093</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.93054926734918</v>
+        <v>8.610941441859012</v>
       </c>
       <c r="L2">
-        <v>6.200237869560024</v>
+        <v>9.969231619326704</v>
       </c>
       <c r="M2">
-        <v>9.535334613274404</v>
+        <v>14.07003342166148</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.54536884568099</v>
+        <v>27.37728486233314</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14721684026289</v>
+        <v>12.01219342924657</v>
       </c>
       <c r="C3">
-        <v>8.286390645209005</v>
+        <v>10.71862745352171</v>
       </c>
       <c r="D3">
-        <v>5.358005096541461</v>
+        <v>6.331521204465656</v>
       </c>
       <c r="E3">
-        <v>8.309187940246957</v>
+        <v>13.25389325277787</v>
       </c>
       <c r="F3">
-        <v>21.98560378251199</v>
+        <v>30.5562499064167</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.35267030550946</v>
+        <v>8.448034244293428</v>
       </c>
       <c r="L3">
-        <v>6.122763693432109</v>
+        <v>9.977100882347298</v>
       </c>
       <c r="M3">
-        <v>9.216541102361262</v>
+        <v>14.0425839426659</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.54808908866244</v>
+        <v>27.45032074583878</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.57416120450777</v>
+        <v>11.88372986712437</v>
       </c>
       <c r="C4">
-        <v>8.296968973784963</v>
+        <v>10.72113088122725</v>
       </c>
       <c r="D4">
-        <v>5.296382570148794</v>
+        <v>6.309310850992324</v>
       </c>
       <c r="E4">
-        <v>8.322898125828203</v>
+        <v>13.27431673644092</v>
       </c>
       <c r="F4">
-        <v>21.84290131022818</v>
+        <v>30.58872595969697</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.98065668570916</v>
+        <v>8.347819480564226</v>
       </c>
       <c r="L4">
-        <v>6.077463649611537</v>
+        <v>9.983261192141319</v>
       </c>
       <c r="M4">
-        <v>9.019021335792253</v>
+        <v>14.02779152086773</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.56329929784325</v>
+        <v>27.5003072277037</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33257833071471</v>
+        <v>11.83157727433641</v>
       </c>
       <c r="C5">
-        <v>8.30151582695893</v>
+        <v>10.72223984542581</v>
       </c>
       <c r="D5">
-        <v>5.270942933832657</v>
+        <v>6.300138251206045</v>
       </c>
       <c r="E5">
-        <v>8.329471110513706</v>
+        <v>13.28308310912166</v>
       </c>
       <c r="F5">
-        <v>21.78883097068293</v>
+        <v>30.60370055539411</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.824800601241144</v>
+        <v>8.306988566370709</v>
       </c>
       <c r="L5">
-        <v>6.059581819552448</v>
+        <v>9.986106150724966</v>
       </c>
       <c r="M5">
-        <v>8.93819956559414</v>
+        <v>14.02228649506477</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.57278332036142</v>
+        <v>27.5219683442886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29197554982335</v>
+        <v>11.82293134906925</v>
       </c>
       <c r="C6">
-        <v>8.302285046977119</v>
+        <v>10.72242936282233</v>
       </c>
       <c r="D6">
-        <v>5.266699365606321</v>
+        <v>6.298607866714817</v>
       </c>
       <c r="E6">
-        <v>8.330621396463663</v>
+        <v>13.28456555939744</v>
       </c>
       <c r="F6">
-        <v>21.78009727551511</v>
+        <v>30.60629210701279</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.798665942782423</v>
+        <v>8.300210699100059</v>
       </c>
       <c r="L6">
-        <v>6.056647684154078</v>
+        <v>9.986598775497566</v>
       </c>
       <c r="M6">
-        <v>8.924762770009298</v>
+        <v>14.0214041049708</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.57455310443632</v>
+        <v>27.52564308733054</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.57093582570631</v>
+        <v>11.88302562718413</v>
       </c>
       <c r="C7">
-        <v>8.297029340162009</v>
+        <v>10.72114547704535</v>
       </c>
       <c r="D7">
-        <v>5.296040788996663</v>
+        <v>6.309187635750181</v>
       </c>
       <c r="E7">
-        <v>8.322982811036123</v>
+        <v>13.27443316625394</v>
       </c>
       <c r="F7">
-        <v>21.84215565483916</v>
+        <v>30.58892086934986</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.978571894833713</v>
+        <v>8.347268717140512</v>
       </c>
       <c r="L7">
-        <v>6.077220138198007</v>
+        <v>9.983298204909795</v>
       </c>
       <c r="M7">
-        <v>9.017932524154663</v>
+        <v>14.02771515474154</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.56341405613041</v>
+        <v>27.50059413150345</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.73131650689218</v>
+        <v>12.14975354108302</v>
       </c>
       <c r="C8">
-        <v>8.275913837185051</v>
+        <v>10.71625847630743</v>
       </c>
       <c r="D8">
-        <v>5.422596801444871</v>
+        <v>6.354799082283145</v>
       </c>
       <c r="E8">
-        <v>8.297996308298568</v>
+        <v>13.23361532287112</v>
       </c>
       <c r="F8">
-        <v>22.15199960246265</v>
+        <v>30.52755064520947</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73489951202982</v>
+        <v>8.554842898146537</v>
       </c>
       <c r="L8">
-        <v>6.173058662234421</v>
+        <v>9.971669521759262</v>
       </c>
       <c r="M8">
-        <v>9.42585094773102</v>
+        <v>14.06014379282194</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.54342505120573</v>
+        <v>27.40139932169662</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.75640718404579</v>
+        <v>12.67380393761587</v>
       </c>
       <c r="C9">
-        <v>8.242081492137464</v>
+        <v>10.7094475448984</v>
       </c>
       <c r="D9">
-        <v>5.659290186710867</v>
+        <v>6.440227282138985</v>
       </c>
       <c r="E9">
-        <v>8.281971431907687</v>
+        <v>13.16755344902248</v>
       </c>
       <c r="F9">
-        <v>22.89225423572319</v>
+        <v>30.46227634945155</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.07955639102681</v>
+        <v>8.958046491994672</v>
       </c>
       <c r="L9">
-        <v>6.378626962773551</v>
+        <v>9.959383263496688</v>
       </c>
       <c r="M9">
-        <v>10.20703467699951</v>
+        <v>14.13987959463995</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.61696272542425</v>
+        <v>27.24775697367454</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.09481203865875</v>
+        <v>13.05548486233765</v>
       </c>
       <c r="C10">
-        <v>8.221964163653233</v>
+        <v>10.70611140046294</v>
       </c>
       <c r="D10">
-        <v>5.825398113678322</v>
+        <v>6.500411454563328</v>
       </c>
       <c r="E10">
-        <v>8.291825945133615</v>
+        <v>13.12752766114864</v>
       </c>
       <c r="F10">
-        <v>23.51909655239628</v>
+        <v>30.44797197569103</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.98124568755147</v>
+        <v>9.24890929141139</v>
       </c>
       <c r="L10">
-        <v>6.539863344310902</v>
+        <v>9.956733812941389</v>
       </c>
       <c r="M10">
-        <v>10.76409188381757</v>
+        <v>14.2079949380807</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.74692229037502</v>
+        <v>27.15989728792775</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.67195842441575</v>
+        <v>13.2276011006313</v>
       </c>
       <c r="C11">
-        <v>8.213872270967745</v>
+        <v>10.70495117608615</v>
       </c>
       <c r="D11">
-        <v>5.899125090880821</v>
+        <v>6.527203043353349</v>
       </c>
       <c r="E11">
-        <v>8.301338970739502</v>
+        <v>13.11116354257828</v>
       </c>
       <c r="F11">
-        <v>23.82256110577343</v>
+        <v>30.44877527234193</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.37257408766635</v>
+        <v>9.379465579040657</v>
       </c>
       <c r="L11">
-        <v>6.615308507248524</v>
+        <v>9.956904597120223</v>
       </c>
       <c r="M11">
-        <v>11.01290805408553</v>
+        <v>14.24097991776724</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.82405277026348</v>
+        <v>27.12537982568984</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.88600998329615</v>
+        <v>13.29249677107257</v>
       </c>
       <c r="C12">
-        <v>8.210963364855093</v>
+        <v>10.70456283101706</v>
       </c>
       <c r="D12">
-        <v>5.926768332029352</v>
+        <v>6.537261627118307</v>
       </c>
       <c r="E12">
-        <v>8.305692404498574</v>
+        <v>13.10523173902085</v>
       </c>
       <c r="F12">
-        <v>23.94012112820179</v>
+        <v>30.45012969705645</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.51804735403055</v>
+        <v>9.428604362175424</v>
       </c>
       <c r="L12">
-        <v>6.64416896324536</v>
+        <v>9.957166268275031</v>
       </c>
       <c r="M12">
-        <v>11.10640367294312</v>
+        <v>14.25375122667106</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.85597259178911</v>
+        <v>27.1130940432745</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84010941297531</v>
+        <v>13.2785338049754</v>
       </c>
       <c r="C13">
-        <v>8.211582891882156</v>
+        <v>10.70464420569414</v>
       </c>
       <c r="D13">
-        <v>5.920827293542792</v>
+        <v>6.535099231062889</v>
       </c>
       <c r="E13">
-        <v>8.304720965807503</v>
+        <v>13.10649747955483</v>
       </c>
       <c r="F13">
-        <v>23.91468471046534</v>
+        <v>30.44979131165884</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.48683776842909</v>
+        <v>9.418035513045254</v>
       </c>
       <c r="L13">
-        <v>6.637940569815018</v>
+        <v>9.957101165821765</v>
       </c>
       <c r="M13">
-        <v>11.08630092436549</v>
+        <v>14.25098832859551</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.84897553373624</v>
+        <v>27.11570506113389</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.68965845225214</v>
+        <v>13.23294609163702</v>
       </c>
       <c r="C14">
-        <v>8.213629822754088</v>
+        <v>10.70491820666788</v>
       </c>
       <c r="D14">
-        <v>5.901404901951366</v>
+        <v>6.528032322943879</v>
       </c>
       <c r="E14">
-        <v>8.301681917941718</v>
+        <v>13.11067022111966</v>
       </c>
       <c r="F14">
-        <v>23.83217978537039</v>
+        <v>30.44886566173036</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.38459664925825</v>
+        <v>9.383514530298305</v>
       </c>
       <c r="L14">
-        <v>6.617677101545723</v>
+        <v>9.956922182075727</v>
       </c>
       <c r="M14">
-        <v>11.02061487621306</v>
+        <v>14.24202503739328</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.82662378288923</v>
+        <v>27.12435332187504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.59691842940453</v>
+        <v>13.20498387026173</v>
       </c>
       <c r="C15">
-        <v>8.214903946607707</v>
+        <v>10.70509267127797</v>
       </c>
       <c r="D15">
-        <v>5.88947191566532</v>
+        <v>6.523692259626499</v>
       </c>
       <c r="E15">
-        <v>8.299919052271223</v>
+        <v>13.11326064149972</v>
       </c>
       <c r="F15">
-        <v>23.78198781637395</v>
+        <v>30.4484354038368</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.3216175723362</v>
+        <v>9.362329002533752</v>
       </c>
       <c r="L15">
-        <v>6.605302731163682</v>
+        <v>9.956838177261783</v>
       </c>
       <c r="M15">
-        <v>10.98028400769232</v>
+        <v>14.23657109862348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.81328949520413</v>
+        <v>27.12975293272815</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.05646112078903</v>
+        <v>13.04420072950749</v>
       </c>
       <c r="C16">
-        <v>8.222514555057298</v>
+        <v>10.70619438257934</v>
       </c>
       <c r="D16">
-        <v>5.820541924008229</v>
+        <v>6.498648547486691</v>
       </c>
       <c r="E16">
-        <v>8.291307828242001</v>
+        <v>13.12863417991723</v>
       </c>
       <c r="F16">
-        <v>23.49963396702815</v>
+        <v>30.44806651424295</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.95529161250873</v>
+        <v>9.240337650294979</v>
       </c>
       <c r="L16">
-        <v>6.534974119918864</v>
+        <v>9.956750268161379</v>
       </c>
       <c r="M16">
-        <v>10.74773293908689</v>
+        <v>14.20587893920752</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.74225454605449</v>
+        <v>27.16226289018365</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71682894974607</v>
+        <v>12.94513198690432</v>
       </c>
       <c r="C17">
-        <v>8.227456810275461</v>
+        <v>10.70696151038303</v>
       </c>
       <c r="D17">
-        <v>5.77777676914031</v>
+        <v>6.483133058291475</v>
       </c>
       <c r="E17">
-        <v>8.287333081854124</v>
+        <v>13.13853745261183</v>
       </c>
       <c r="F17">
-        <v>23.33111841737529</v>
+        <v>30.44971210955036</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.72572867265942</v>
+        <v>9.165015078039831</v>
       </c>
       <c r="L17">
-        <v>6.492359416315661</v>
+        <v>9.9570481761703</v>
       </c>
       <c r="M17">
-        <v>10.6038445117938</v>
+        <v>14.18755751333149</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.70337746063967</v>
+        <v>27.18360376307099</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.51849415974317</v>
+        <v>12.88801153824383</v>
       </c>
       <c r="C18">
-        <v>8.230399003813266</v>
+        <v>10.70743640568601</v>
       </c>
       <c r="D18">
-        <v>5.753007160777952</v>
+        <v>6.474153901935159</v>
       </c>
       <c r="E18">
-        <v>8.285518696218883</v>
+        <v>13.14440711499496</v>
       </c>
       <c r="F18">
-        <v>23.23591588382565</v>
+        <v>30.45134680995911</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.59191509887443</v>
+        <v>9.121528648583514</v>
       </c>
       <c r="L18">
-        <v>6.468046657001358</v>
+        <v>9.957349100582135</v>
       </c>
       <c r="M18">
-        <v>10.52065472192327</v>
+        <v>14.17720809553748</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.68270448359764</v>
+        <v>27.19639140283581</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.45082661190632</v>
+        <v>12.86864969392421</v>
       </c>
       <c r="C19">
-        <v>8.231412190680738</v>
+        <v>10.70760299067989</v>
       </c>
       <c r="D19">
-        <v>5.744591384650836</v>
+        <v>6.471104333527776</v>
       </c>
       <c r="E19">
-        <v>8.28498456657619</v>
+        <v>13.14642429717945</v>
       </c>
       <c r="F19">
-        <v>23.2039774758325</v>
+        <v>30.45201850852557</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.54630348036596</v>
+        <v>9.106778396746124</v>
       </c>
       <c r="L19">
-        <v>6.459849128103691</v>
+        <v>9.957473268534606</v>
       </c>
       <c r="M19">
-        <v>10.49241657207051</v>
+        <v>14.17373655275498</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.67599115096096</v>
+        <v>27.2008091272726</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.75329214411446</v>
+        <v>12.95569285131799</v>
       </c>
       <c r="C20">
-        <v>8.226920376399944</v>
+        <v>10.70687636706675</v>
       </c>
       <c r="D20">
-        <v>5.782347103769101</v>
+        <v>6.484790424824159</v>
       </c>
       <c r="E20">
-        <v>8.287707172903461</v>
+        <v>13.13746527075372</v>
       </c>
       <c r="F20">
-        <v>23.34887874955746</v>
+        <v>30.44946571215575</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.75034979670334</v>
+        <v>9.173050501784624</v>
       </c>
       <c r="L20">
-        <v>6.496875401192025</v>
+        <v>9.957003058855051</v>
       </c>
       <c r="M20">
-        <v>10.61920658352486</v>
+        <v>14.18948839141435</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.70734039116782</v>
+        <v>27.18127889273415</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.73397124357291</v>
+        <v>13.24634442613794</v>
       </c>
       <c r="C21">
-        <v>8.213024349270572</v>
+        <v>10.70483634471428</v>
       </c>
       <c r="D21">
-        <v>5.90711729452174</v>
+        <v>6.530110420705995</v>
       </c>
       <c r="E21">
-        <v>8.302553953724292</v>
+        <v>13.10943739729733</v>
       </c>
       <c r="F21">
-        <v>23.85634163516661</v>
+        <v>30.44910905606687</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.41470099533415</v>
+        <v>9.393662685481443</v>
       </c>
       <c r="L21">
-        <v>6.623621158206346</v>
+        <v>9.956969414772136</v>
       </c>
       <c r="M21">
-        <v>11.03992862514438</v>
+        <v>14.24465021355475</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.83311446033495</v>
+        <v>27.12179179611961</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.34869291031621</v>
+        <v>13.43463677068195</v>
       </c>
       <c r="C22">
-        <v>8.204849388444767</v>
+        <v>10.70380019956095</v>
       </c>
       <c r="D22">
-        <v>5.987051009919286</v>
+        <v>6.559222540147363</v>
       </c>
       <c r="E22">
-        <v>8.316648050109023</v>
+        <v>13.09266368524732</v>
       </c>
       <c r="F22">
-        <v>24.20341582147579</v>
+        <v>30.45499654809165</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.83307578360316</v>
+        <v>9.53607662314365</v>
       </c>
       <c r="L22">
-        <v>6.70814850542404</v>
+        <v>9.958095229306425</v>
       </c>
       <c r="M22">
-        <v>11.3285447544659</v>
+        <v>14.28233389400162</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.931179299621</v>
+        <v>27.08749104046269</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.02298308891675</v>
+        <v>13.33431417610005</v>
       </c>
       <c r="C23">
-        <v>8.209128485112716</v>
+        <v>10.7043261502395</v>
       </c>
       <c r="D23">
-        <v>5.944539806983581</v>
+        <v>6.543732064599293</v>
       </c>
       <c r="E23">
-        <v>8.308714744715402</v>
+        <v>13.10147491635822</v>
       </c>
       <c r="F23">
-        <v>24.01676210727561</v>
+        <v>30.45129476660921</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.61122757754889</v>
+        <v>9.460244357410911</v>
       </c>
       <c r="L23">
-        <v>6.66288327411777</v>
+        <v>9.957389644434514</v>
       </c>
       <c r="M23">
-        <v>11.16656523628617</v>
+        <v>14.26207439208164</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.87734872336277</v>
+        <v>27.105378711139</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.73681671846698</v>
+        <v>12.95091879205743</v>
       </c>
       <c r="C24">
-        <v>8.227162584326885</v>
+        <v>10.70691475485001</v>
       </c>
       <c r="D24">
-        <v>5.780281425697319</v>
+        <v>6.484041313288484</v>
       </c>
       <c r="E24">
-        <v>8.287536582156813</v>
+        <v>13.13794945550361</v>
       </c>
       <c r="F24">
-        <v>23.34084407362651</v>
+        <v>30.44957496331157</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.73922430113988</v>
+        <v>9.169418251477595</v>
       </c>
       <c r="L24">
-        <v>6.494833141144546</v>
+        <v>9.957023052474675</v>
       </c>
       <c r="M24">
-        <v>10.61226283860336</v>
+        <v>14.18861486835734</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.70554353302602</v>
+        <v>27.18232835164717</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.23504567028222</v>
+        <v>12.53234256692108</v>
       </c>
       <c r="C25">
-        <v>8.250411371271554</v>
+        <v>10.71099558358701</v>
       </c>
       <c r="D25">
-        <v>5.596572842914311</v>
+        <v>6.41756027395244</v>
       </c>
       <c r="E25">
-        <v>8.282620005264217</v>
+        <v>13.18392945352999</v>
       </c>
       <c r="F25">
-        <v>22.67754061619504</v>
+        <v>30.47402808996067</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.7308498852561</v>
+        <v>8.849701370354172</v>
       </c>
       <c r="L25">
-        <v>6.321181912720393</v>
+        <v>9.961584333315461</v>
       </c>
       <c r="M25">
-        <v>9.998313749080037</v>
+        <v>14.11661110055485</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.58425212307817</v>
+        <v>27.2849340492647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_152/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_152/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.22224168450631</v>
+        <v>13.02865749216461</v>
       </c>
       <c r="C2">
-        <v>10.71512280286257</v>
+        <v>8.270701207660077</v>
       </c>
       <c r="D2">
-        <v>6.366890670964553</v>
+        <v>5.456141542528042</v>
       </c>
       <c r="E2">
-        <v>13.22350241928203</v>
+        <v>8.293401628827093</v>
       </c>
       <c r="F2">
-        <v>30.51464489457093</v>
+        <v>22.24482797368391</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.610941441859012</v>
+        <v>10.93054926734919</v>
       </c>
       <c r="L2">
-        <v>9.969231619326704</v>
+        <v>6.200237869560047</v>
       </c>
       <c r="M2">
-        <v>14.07003342166148</v>
+        <v>9.535334613274445</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.37728486233314</v>
+        <v>18.54536884568095</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01219342924657</v>
+        <v>12.14721684026289</v>
       </c>
       <c r="C3">
-        <v>10.71862745352171</v>
+        <v>8.286390645209137</v>
       </c>
       <c r="D3">
-        <v>6.331521204465656</v>
+        <v>5.358005096541407</v>
       </c>
       <c r="E3">
-        <v>13.25389325277787</v>
+        <v>8.309187940247064</v>
       </c>
       <c r="F3">
-        <v>30.5562499064167</v>
+        <v>21.98560378251192</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.448034244293428</v>
+        <v>10.35267030550949</v>
       </c>
       <c r="L3">
-        <v>9.977100882347298</v>
+        <v>6.122763693432129</v>
       </c>
       <c r="M3">
-        <v>14.0425839426659</v>
+        <v>9.216541102361274</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.45032074583878</v>
+        <v>18.54808908866237</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.88372986712437</v>
+        <v>11.5741612045078</v>
       </c>
       <c r="C4">
-        <v>10.72113088122725</v>
+        <v>8.296968973784816</v>
       </c>
       <c r="D4">
-        <v>6.309310850992324</v>
+        <v>5.296382570148729</v>
       </c>
       <c r="E4">
-        <v>13.27431673644092</v>
+        <v>8.322898125828207</v>
       </c>
       <c r="F4">
-        <v>30.58872595969697</v>
+        <v>21.842901310228</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.347819480564226</v>
+        <v>9.980656685709187</v>
       </c>
       <c r="L4">
-        <v>9.983261192141319</v>
+        <v>6.077463649611537</v>
       </c>
       <c r="M4">
-        <v>14.02779152086773</v>
+        <v>9.019021335792241</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.5003072277037</v>
+        <v>18.56329929784306</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.83157727433641</v>
+        <v>11.33257833071476</v>
       </c>
       <c r="C5">
-        <v>10.72223984542581</v>
+        <v>8.3015158269588</v>
       </c>
       <c r="D5">
-        <v>6.300138251206045</v>
+        <v>5.270942933832765</v>
       </c>
       <c r="E5">
-        <v>13.28308310912166</v>
+        <v>8.329471110513648</v>
       </c>
       <c r="F5">
-        <v>30.60370055539411</v>
+        <v>21.78883097068253</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.306988566370709</v>
+        <v>9.824800601241208</v>
       </c>
       <c r="L5">
-        <v>9.986106150724966</v>
+        <v>6.059581819552426</v>
       </c>
       <c r="M5">
-        <v>14.02228649506477</v>
+        <v>8.938199565594083</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.5219683442886</v>
+        <v>18.57278332036114</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.82293134906925</v>
+        <v>11.29197554982328</v>
       </c>
       <c r="C6">
-        <v>10.72242936282233</v>
+        <v>8.302285046977394</v>
       </c>
       <c r="D6">
-        <v>6.298607866714817</v>
+        <v>5.266699365606133</v>
       </c>
       <c r="E6">
-        <v>13.28456555939744</v>
+        <v>8.330621396463894</v>
       </c>
       <c r="F6">
-        <v>30.60629210701279</v>
+        <v>21.78009727551539</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.300210699100059</v>
+        <v>9.798665942782369</v>
       </c>
       <c r="L6">
-        <v>9.986598775497566</v>
+        <v>6.056647684154123</v>
       </c>
       <c r="M6">
-        <v>14.0214041049708</v>
+        <v>8.924762770009421</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.52564308733054</v>
+        <v>18.57455310443647</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88302562718413</v>
+        <v>11.57093582570633</v>
       </c>
       <c r="C7">
-        <v>10.72114547704535</v>
+        <v>8.297029340162144</v>
       </c>
       <c r="D7">
-        <v>6.309187635750181</v>
+        <v>5.296040788996794</v>
       </c>
       <c r="E7">
-        <v>13.27443316625394</v>
+        <v>8.322982811036244</v>
       </c>
       <c r="F7">
-        <v>30.58892086934986</v>
+        <v>21.84215565483897</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.347268717140512</v>
+        <v>9.978571894833758</v>
       </c>
       <c r="L7">
-        <v>9.983298204909795</v>
+        <v>6.077220138198038</v>
       </c>
       <c r="M7">
-        <v>14.02771515474154</v>
+        <v>9.017932524154666</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.50059413150345</v>
+        <v>18.56341405613028</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.14975354108302</v>
+        <v>12.73131650689221</v>
       </c>
       <c r="C8">
-        <v>10.71625847630743</v>
+        <v>8.275913837184916</v>
       </c>
       <c r="D8">
-        <v>6.354799082283145</v>
+        <v>5.422596801444804</v>
       </c>
       <c r="E8">
-        <v>13.23361532287112</v>
+        <v>8.297996308298453</v>
       </c>
       <c r="F8">
-        <v>30.52755064520947</v>
+        <v>22.1519996024626</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.554842898146537</v>
+        <v>10.73489951202985</v>
       </c>
       <c r="L8">
-        <v>9.971669521759262</v>
+        <v>6.173058662234382</v>
       </c>
       <c r="M8">
-        <v>14.06014379282194</v>
+        <v>9.425850947730984</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.40139932169662</v>
+        <v>18.54342505120568</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.67380393761587</v>
+        <v>14.75640718404583</v>
       </c>
       <c r="C9">
-        <v>10.7094475448984</v>
+        <v>8.242081492137334</v>
       </c>
       <c r="D9">
-        <v>6.440227282138985</v>
+        <v>5.659290186710741</v>
       </c>
       <c r="E9">
-        <v>13.16755344902248</v>
+        <v>8.281971431907637</v>
       </c>
       <c r="F9">
-        <v>30.46227634945155</v>
+        <v>22.89225423572314</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.958046491994672</v>
+        <v>12.07955639102682</v>
       </c>
       <c r="L9">
-        <v>9.959383263496688</v>
+        <v>6.378626962773515</v>
       </c>
       <c r="M9">
-        <v>14.13987959463995</v>
+        <v>10.20703467699946</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.24775697367454</v>
+        <v>18.61696272542413</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.05548486233765</v>
+        <v>16.09481203865875</v>
       </c>
       <c r="C10">
-        <v>10.70611140046294</v>
+        <v>8.221964163652981</v>
       </c>
       <c r="D10">
-        <v>6.500411454563328</v>
+        <v>5.825398113678436</v>
       </c>
       <c r="E10">
-        <v>13.12752766114864</v>
+        <v>8.291825945133562</v>
       </c>
       <c r="F10">
-        <v>30.44797197569103</v>
+        <v>23.51909655239632</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.24890929141139</v>
+        <v>12.9812456875514</v>
       </c>
       <c r="L10">
-        <v>9.956733812941389</v>
+        <v>6.539863344310914</v>
       </c>
       <c r="M10">
-        <v>14.2079949380807</v>
+        <v>10.76409188381759</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>27.15989728792775</v>
+        <v>18.74692229037507</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.2276011006313</v>
+        <v>16.67195842441574</v>
       </c>
       <c r="C11">
-        <v>10.70495117608615</v>
+        <v>8.213872270967739</v>
       </c>
       <c r="D11">
-        <v>6.527203043353349</v>
+        <v>5.89912509088088</v>
       </c>
       <c r="E11">
-        <v>13.11116354257828</v>
+        <v>8.301338970739508</v>
       </c>
       <c r="F11">
-        <v>30.44877527234193</v>
+        <v>23.82256110577345</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.379465579040657</v>
+        <v>13.37257408766637</v>
       </c>
       <c r="L11">
-        <v>9.956904597120223</v>
+        <v>6.615308507248528</v>
       </c>
       <c r="M11">
-        <v>14.24097991776724</v>
+        <v>11.01290805408552</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.12537982568984</v>
+        <v>18.82405277026347</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.29249677107257</v>
+        <v>16.88600998329615</v>
       </c>
       <c r="C12">
-        <v>10.70456283101706</v>
+        <v>8.210963364854964</v>
       </c>
       <c r="D12">
-        <v>6.537261627118307</v>
+        <v>5.926768332029595</v>
       </c>
       <c r="E12">
-        <v>13.10523173902085</v>
+        <v>8.305692404498584</v>
       </c>
       <c r="F12">
-        <v>30.45012969705645</v>
+        <v>23.94012112820173</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.428604362175424</v>
+        <v>13.51804735403052</v>
       </c>
       <c r="L12">
-        <v>9.957166268275031</v>
+        <v>6.644168963245408</v>
       </c>
       <c r="M12">
-        <v>14.25375122667106</v>
+        <v>11.10640367294314</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>27.1130940432745</v>
+        <v>18.8559725917891</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.2785338049754</v>
+        <v>16.84010941297528</v>
       </c>
       <c r="C13">
-        <v>10.70464420569414</v>
+        <v>8.211582891882017</v>
       </c>
       <c r="D13">
-        <v>6.535099231062889</v>
+        <v>5.920827293542786</v>
       </c>
       <c r="E13">
-        <v>13.10649747955483</v>
+        <v>8.304720965807515</v>
       </c>
       <c r="F13">
-        <v>30.44979131165884</v>
+        <v>23.91468471046542</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.418035513045254</v>
+        <v>13.48683776842907</v>
       </c>
       <c r="L13">
-        <v>9.957101165821765</v>
+        <v>6.63794056981502</v>
       </c>
       <c r="M13">
-        <v>14.25098832859551</v>
+        <v>11.08630092436548</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.11570506113389</v>
+        <v>18.84897553373631</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.23294609163702</v>
+        <v>16.68965845225211</v>
       </c>
       <c r="C14">
-        <v>10.70491820666788</v>
+        <v>8.213629822753829</v>
       </c>
       <c r="D14">
-        <v>6.528032322943879</v>
+        <v>5.901404901951425</v>
       </c>
       <c r="E14">
-        <v>13.11067022111966</v>
+        <v>8.301681917941565</v>
       </c>
       <c r="F14">
-        <v>30.44886566173036</v>
+        <v>23.83217978537047</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.383514530298305</v>
+        <v>13.38459664925815</v>
       </c>
       <c r="L14">
-        <v>9.956922182075727</v>
+        <v>6.617677101545685</v>
       </c>
       <c r="M14">
-        <v>14.24202503739328</v>
+        <v>11.02061487621304</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>27.12435332187504</v>
+        <v>18.82662378288931</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.20498387026173</v>
+        <v>16.59691842940455</v>
       </c>
       <c r="C15">
-        <v>10.70509267127797</v>
+        <v>8.214903946607704</v>
       </c>
       <c r="D15">
-        <v>6.523692259626499</v>
+        <v>5.889471915665212</v>
       </c>
       <c r="E15">
-        <v>13.11326064149972</v>
+        <v>8.299919052271317</v>
       </c>
       <c r="F15">
-        <v>30.4484354038368</v>
+        <v>23.78198781637393</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.362329002533752</v>
+        <v>13.32161757233622</v>
       </c>
       <c r="L15">
-        <v>9.956838177261783</v>
+        <v>6.605302731163734</v>
       </c>
       <c r="M15">
-        <v>14.23657109862348</v>
+        <v>10.98028400769233</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>27.12975293272815</v>
+        <v>18.81328949520407</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.04420072950749</v>
+        <v>16.05646112078903</v>
       </c>
       <c r="C16">
-        <v>10.70619438257934</v>
+        <v>8.222514555057431</v>
       </c>
       <c r="D16">
-        <v>6.498648547486691</v>
+        <v>5.82054192400817</v>
       </c>
       <c r="E16">
-        <v>13.12863417991723</v>
+        <v>8.291307828242056</v>
       </c>
       <c r="F16">
-        <v>30.44806651424295</v>
+        <v>23.49963396702819</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.240337650294979</v>
+        <v>12.95529161250873</v>
       </c>
       <c r="L16">
-        <v>9.956750268161379</v>
+        <v>6.53497411991891</v>
       </c>
       <c r="M16">
-        <v>14.20587893920752</v>
+        <v>10.7477329390869</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>27.16226289018365</v>
+        <v>18.74225454605454</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.94513198690432</v>
+        <v>15.71682894974608</v>
       </c>
       <c r="C17">
-        <v>10.70696151038303</v>
+        <v>8.227456810275722</v>
       </c>
       <c r="D17">
-        <v>6.483133058291475</v>
+        <v>5.777776769140154</v>
       </c>
       <c r="E17">
-        <v>13.13853745261183</v>
+        <v>8.287333081854186</v>
       </c>
       <c r="F17">
-        <v>30.44971210955036</v>
+        <v>23.33111841737515</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.165015078039831</v>
+        <v>12.72572867265947</v>
       </c>
       <c r="L17">
-        <v>9.9570481761703</v>
+        <v>6.492359416315605</v>
       </c>
       <c r="M17">
-        <v>14.18755751333149</v>
+        <v>10.60384451179376</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>27.18360376307099</v>
+        <v>18.70337746063948</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.88801153824383</v>
+        <v>15.51849415974316</v>
       </c>
       <c r="C18">
-        <v>10.70743640568601</v>
+        <v>8.230399003813407</v>
       </c>
       <c r="D18">
-        <v>6.474153901935159</v>
+        <v>5.753007160777887</v>
       </c>
       <c r="E18">
-        <v>13.14440711499496</v>
+        <v>8.285518696218885</v>
       </c>
       <c r="F18">
-        <v>30.45134680995911</v>
+        <v>23.23591588382554</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.121528648583514</v>
+        <v>12.59191509887442</v>
       </c>
       <c r="L18">
-        <v>9.957349100582135</v>
+        <v>6.468046657001357</v>
       </c>
       <c r="M18">
-        <v>14.17720809553748</v>
+        <v>10.52065472192327</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>27.19639140283581</v>
+        <v>18.6827044835975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.86864969392421</v>
+        <v>15.45082661190634</v>
       </c>
       <c r="C19">
-        <v>10.70760299067989</v>
+        <v>8.23141219068046</v>
       </c>
       <c r="D19">
-        <v>6.471104333527776</v>
+        <v>5.744591384650818</v>
       </c>
       <c r="E19">
-        <v>13.14642429717945</v>
+        <v>8.284984566576254</v>
       </c>
       <c r="F19">
-        <v>30.45201850852557</v>
+        <v>23.20397747583266</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.106778396746124</v>
+        <v>12.54630348036599</v>
       </c>
       <c r="L19">
-        <v>9.957473268534606</v>
+        <v>6.459849128103773</v>
       </c>
       <c r="M19">
-        <v>14.17373655275498</v>
+        <v>10.49241657207053</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>27.2008091272726</v>
+        <v>18.67599115096104</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.95569285131799</v>
+        <v>15.75329214411447</v>
       </c>
       <c r="C20">
-        <v>10.70687636706675</v>
+        <v>8.226920376399939</v>
       </c>
       <c r="D20">
-        <v>6.484790424824159</v>
+        <v>5.782347103768991</v>
       </c>
       <c r="E20">
-        <v>13.13746527075372</v>
+        <v>8.287707172903517</v>
       </c>
       <c r="F20">
-        <v>30.44946571215575</v>
+        <v>23.3488787495575</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.173050501784624</v>
+        <v>12.75034979670333</v>
       </c>
       <c r="L20">
-        <v>9.957003058855051</v>
+        <v>6.496875401192059</v>
       </c>
       <c r="M20">
-        <v>14.18948839141435</v>
+        <v>10.61920658352487</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>27.18127889273415</v>
+        <v>18.70734039116783</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.24634442613794</v>
+        <v>16.73397124357294</v>
       </c>
       <c r="C21">
-        <v>10.70483634471428</v>
+        <v>8.213024349270706</v>
       </c>
       <c r="D21">
-        <v>6.530110420705995</v>
+        <v>5.907117294521603</v>
       </c>
       <c r="E21">
-        <v>13.10943739729733</v>
+        <v>8.302553953724344</v>
       </c>
       <c r="F21">
-        <v>30.44910905606687</v>
+        <v>23.85634163516649</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.393662685481443</v>
+        <v>13.41470099533419</v>
       </c>
       <c r="L21">
-        <v>9.956969414772136</v>
+        <v>6.623621158206341</v>
       </c>
       <c r="M21">
-        <v>14.24465021355475</v>
+        <v>11.03992862514437</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>27.12179179611961</v>
+        <v>18.8331144603348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43463677068195</v>
+        <v>17.34869291031628</v>
       </c>
       <c r="C22">
-        <v>10.70380019956095</v>
+        <v>8.204849388444641</v>
       </c>
       <c r="D22">
-        <v>6.559222540147363</v>
+        <v>5.987051009919176</v>
       </c>
       <c r="E22">
-        <v>13.09266368524732</v>
+        <v>8.316648050109027</v>
       </c>
       <c r="F22">
-        <v>30.45499654809165</v>
+        <v>24.20341582147571</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.53607662314365</v>
+        <v>13.83307578360319</v>
       </c>
       <c r="L22">
-        <v>9.958095229306425</v>
+        <v>6.708148505424079</v>
       </c>
       <c r="M22">
-        <v>14.28233389400162</v>
+        <v>11.32854475446593</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>27.08749104046269</v>
+        <v>18.93117929962087</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.33431417610005</v>
+        <v>17.02298308891669</v>
       </c>
       <c r="C23">
-        <v>10.7043261502395</v>
+        <v>8.209128485112709</v>
       </c>
       <c r="D23">
-        <v>6.543732064599293</v>
+        <v>5.944539806983733</v>
       </c>
       <c r="E23">
-        <v>13.10147491635822</v>
+        <v>8.30871474471531</v>
       </c>
       <c r="F23">
-        <v>30.45129476660921</v>
+        <v>24.01676210727576</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.460244357410911</v>
+        <v>13.61122757754884</v>
       </c>
       <c r="L23">
-        <v>9.957389644434514</v>
+        <v>6.662883274117712</v>
       </c>
       <c r="M23">
-        <v>14.26207439208164</v>
+        <v>11.16656523628616</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>27.105378711139</v>
+        <v>18.87734872336296</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.95091879205743</v>
+        <v>15.736816718467</v>
       </c>
       <c r="C24">
-        <v>10.70691475485001</v>
+        <v>8.227162584327026</v>
       </c>
       <c r="D24">
-        <v>6.484041313288484</v>
+        <v>5.780281425697369</v>
       </c>
       <c r="E24">
-        <v>13.13794945550361</v>
+        <v>8.28753658215687</v>
       </c>
       <c r="F24">
-        <v>30.44957496331157</v>
+        <v>23.34084407362633</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.169418251477595</v>
+        <v>12.73922430113993</v>
       </c>
       <c r="L24">
-        <v>9.957023052474675</v>
+        <v>6.494833141144573</v>
       </c>
       <c r="M24">
-        <v>14.18861486835734</v>
+        <v>10.61226283860334</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>27.18232835164717</v>
+        <v>18.70554353302585</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.53234256692108</v>
+        <v>14.23504567028226</v>
       </c>
       <c r="C25">
-        <v>10.71099558358701</v>
+        <v>8.250411371271559</v>
       </c>
       <c r="D25">
-        <v>6.41756027395244</v>
+        <v>5.596572842914481</v>
       </c>
       <c r="E25">
-        <v>13.18392945352999</v>
+        <v>8.282620005264222</v>
       </c>
       <c r="F25">
-        <v>30.47402808996067</v>
+        <v>22.67754061619489</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.849701370354172</v>
+        <v>11.73084988525614</v>
       </c>
       <c r="L25">
-        <v>9.961584333315461</v>
+        <v>6.321181912720437</v>
       </c>
       <c r="M25">
-        <v>14.11661110055485</v>
+        <v>9.99831374908003</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>27.2849340492647</v>
+        <v>18.58425212307805</v>
       </c>
     </row>
   </sheetData>
